--- a/biology/Histoire de la zoologie et de la botanique/Frank_Wall/Frank_Wall.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frank_Wall/Frank_Wall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Wall est un médecin militaire et un herpétologiste britannique, né le 21 avril 1868 à Colombo à Ceylan et mort le 19 mai 1950 à Bournemouth dans le Dorset.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est un homme politique important de Ceylan qui l’initie le premier à l’histoire naturelle. Wall étudie la médecine à Londres. Il entre à l’Indian Medical Service en 1893 et est envoyé en Inde l’année suivante. Il y demeure jusqu’à sa retraite en 1925, date à laquelle il se retire en Grande-Bretagne.
 Durant son service, il récolte de nombreux serpents dans de nombreuses régions de l’Inde. Durant la Première Guerre mondiale, il est en service dans le corps expéditionnaire britannique en Irak. À son retour, il offre ses collections au British Museum.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles.
 </t>
